--- a/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.395081752397483</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.210090658812371</v>
+        <v>1.21009065881237</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.355561262002678</v>
@@ -664,7 +664,7 @@
         <v>-1.357701457327638</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.22450696671001</v>
+        <v>1.224506966710009</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.742809976405338</v>
+        <v>-2.868721203938528</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.78445910157699</v>
+        <v>-2.785046426559103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6924666525759531</v>
+        <v>-0.6046488715477585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6378613698047442</v>
+        <v>-0.8372521969386216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.429804436212249</v>
+        <v>-3.442205227818831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7117273494478504</v>
+        <v>-0.740028295499654</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.09854367140877</v>
+        <v>-1.035449745259799</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.732048384165105</v>
+        <v>-2.667825234787809</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2155532538854262</v>
+        <v>-0.1347713328855182</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.232375988298885</v>
+        <v>0.1234565100793507</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.06028897452258603</v>
+        <v>0.05223411613482187</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.958924275453024</v>
+        <v>2.971916748467168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.466654797831846</v>
+        <v>3.278389440282544</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7916671562863078</v>
+        <v>0.6553176690390994</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.139537780088538</v>
+        <v>3.326075445584074</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.635964981000257</v>
+        <v>1.62893901658973</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.0528548466448697</v>
+        <v>-0.0555390192090954</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.571671970166104</v>
+        <v>2.609215936244044</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2059091883577907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.178605149818064</v>
+        <v>0.1786051498180638</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.06988697794145943</v>
@@ -769,7 +769,7 @@
         <v>-0.2668616127215493</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2406817066899187</v>
+        <v>0.2406817066899184</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7271033754394358</v>
+        <v>-0.7175128723170655</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7294083414786829</v>
+        <v>-0.7436825720476699</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2140949098609384</v>
+        <v>-0.1857963168491988</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08244368749227191</v>
+        <v>-0.1074341728563868</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4543614141462084</v>
+        <v>-0.4481346461954698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0926273097640873</v>
+        <v>-0.09954292871450909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1896433027115806</v>
+        <v>-0.184190106160795</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4716320472191255</v>
+        <v>-0.4771833046157098</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04425605486359606</v>
+        <v>-0.02561576619994283</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1947785243044006</v>
+        <v>0.1327961077872755</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03584957050660306</v>
+        <v>0.05734629483409552</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.258671458469542</v>
+        <v>1.33646957572462</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6184085975421804</v>
+        <v>0.562546172882664</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1282795750862866</v>
+        <v>0.1203579124269886</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5464724870383911</v>
+        <v>0.5722538381772855</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.380817998826924</v>
+        <v>0.3638507537008323</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01265545960943864</v>
+        <v>-0.01351471818680247</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5705848186837232</v>
+        <v>0.5804158417834857</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.250210105455184</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1621577009366361</v>
+        <v>-0.1621577009366368</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.3185402349908172</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.090186272743845</v>
+        <v>-1.134541960356716</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.027953542560858</v>
+        <v>-1.063962297411698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3887419423017453</v>
+        <v>-0.3947400772881791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.741838436472182</v>
+        <v>-1.693843088523142</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.622165800776395</v>
+        <v>-2.637110179931117</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.453943948623238</v>
+        <v>-1.557332575231849</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.132442082470519</v>
+        <v>-1.111113678937672</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.440320958156008</v>
+        <v>-1.651493699047508</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6655693909445618</v>
+        <v>-0.5797833590886933</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3456853062622024</v>
+        <v>0.3567241145751053</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4087032754430404</v>
+        <v>0.4670415612951287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.17715804346862</v>
+        <v>1.224443389874363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.241187703679494</v>
+        <v>1.301247661746056</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1060829259911206</v>
+        <v>-0.002320389371946031</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.148776587900979</v>
+        <v>1.006996746578516</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4501576304251588</v>
+        <v>0.5252387996299304</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07305287298277141</v>
+        <v>-0.01382853928166689</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8418750380218865</v>
+        <v>0.9389489820585909</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2708438141407321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.03512962343075946</v>
+        <v>-0.03512962343075961</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1068495134731741</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5749486682495093</v>
+        <v>-0.5999667885868978</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5625994321391969</v>
+        <v>-0.5535222746641071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2179174649013342</v>
+        <v>-0.221030573916875</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3166982863391078</v>
+        <v>-0.3280924742997351</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4890473177059966</v>
+        <v>-0.4691970430142908</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2636664485834631</v>
+        <v>-0.2779380433982603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3278875272420201</v>
+        <v>-0.3363436835431909</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4292550843525546</v>
+        <v>-0.4725291833931906</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1949807955854042</v>
+        <v>-0.1682175102465021</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3250233476346476</v>
+        <v>0.3579440017129157</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4310198404228193</v>
+        <v>0.5079449264028504</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.118195275083556</v>
+        <v>1.275975518023513</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3173880249671758</v>
+        <v>0.3517633658672321</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03163932458186711</v>
+        <v>0.006379251665207348</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3015178363314409</v>
+        <v>0.266330621362699</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1835769144158315</v>
+        <v>0.211413405430057</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01050982671502529</v>
+        <v>-0.005295494012539137</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3245982210581239</v>
+        <v>0.3846944973583406</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.048452967207746</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.265582554735303</v>
+        <v>1.265582554735301</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1832892469544149</v>
@@ -1092,7 +1092,7 @@
         <v>-0.5562965593898936</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.1527256626240578</v>
+        <v>-0.1527256626240585</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.90220984234261</v>
+        <v>-4.035986251797157</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.507414318705105</v>
+        <v>-4.401298879902501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.930812534959575</v>
+        <v>-3.830446007694726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5653386381044422</v>
+        <v>-0.8095245447311628</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.547149954121885</v>
+        <v>-1.534267241335636</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.120438676006678</v>
+        <v>-0.9617350154584527</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.572803939513573</v>
+        <v>-1.653931981133082</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.144188330366166</v>
+        <v>-2.098794244783933</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.81647386819057</v>
+        <v>-1.722749738769971</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4007199101102481</v>
+        <v>0.3467249735821742</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.6086640496327859</v>
+        <v>-0.4290364090515385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08571987289154827</v>
+        <v>0.09583591309650966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.847742781642553</v>
+        <v>4.916663482154231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.438598473459217</v>
+        <v>3.519048001870939</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.3895365334454</v>
+        <v>3.446770409095966</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.961456419558868</v>
+        <v>2.025029053007042</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.079001222574062</v>
+        <v>0.9937539403168067</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.219981516490758</v>
+        <v>1.284201018307241</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.6530030491153523</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4901220135127724</v>
+        <v>-0.4901220135127725</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5998986508071883</v>
@@ -1188,7 +1188,7 @@
         <v>0.2887688356507182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3485714783411553</v>
+        <v>0.3485714783411549</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05265372320327329</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1598079840675738</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04387368544235236</v>
+        <v>-0.04387368544235256</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8603718382930811</v>
+        <v>-0.8673110875425029</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.882554721082488</v>
+        <v>-0.8927664264760737</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7871629233232913</v>
+        <v>-0.8088402611565458</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1487801722174832</v>
+        <v>-0.1817805568728519</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3402405505781998</v>
+        <v>-0.3202879069469518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2268330200644563</v>
+        <v>-0.2144007620280995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3710269252707399</v>
+        <v>-0.3864352303875279</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4758285742601814</v>
+        <v>-0.4767275933177297</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3799851719084747</v>
+        <v>-0.384827729458948</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3146965588472761</v>
+        <v>0.3957054161930161</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07549245531570145</v>
+        <v>-0.06173729741440201</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.147167854681306</v>
+        <v>0.1330329898781031</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.934709860364876</v>
+        <v>2.046178779723712</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.449632606250289</v>
+        <v>1.436488927361341</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.518320569606974</v>
+        <v>1.592318348879528</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7071488480898682</v>
+        <v>0.7854433128911522</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4216658802865796</v>
+        <v>0.3686931043512065</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4881134085464182</v>
+        <v>0.5060579556005503</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.98403323057743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.07234770166704672</v>
+        <v>-0.07234770166704638</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.7003446388555351</v>
@@ -1297,7 +1297,7 @@
         <v>-1.180180969912099</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.0008238572990780513</v>
+        <v>0.0008238572990787452</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.08178903055204995</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.533668342215021</v>
+        <v>-1.595651183436069</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.620508346220031</v>
+        <v>-1.664852436542759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7853785994847075</v>
+        <v>-0.7883471198735817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3297378960324899</v>
+        <v>-0.4460438512096449</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.228893114885782</v>
+        <v>-2.146125028321089</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.060561077100798</v>
+        <v>-0.9709593715105489</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6894326978398362</v>
+        <v>-0.7504113206978924</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.70853241482986</v>
+        <v>-1.689438059457612</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6399300803486931</v>
+        <v>-0.6050392478765642</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1894033357694639</v>
+        <v>-0.2484419782682319</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2630716431832675</v>
+        <v>-0.3339176886002327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6770964157635018</v>
+        <v>0.7172415163828638</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.811618781492738</v>
+        <v>1.923699580604884</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1299879053074887</v>
+        <v>-0.145098174553707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9052973983412571</v>
+        <v>1.058965164795258</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6495465850639376</v>
+        <v>0.6023111816792078</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.4867227630975537</v>
+        <v>-0.4718488800454417</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.555403896899844</v>
+        <v>0.5827235525620038</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4398669796143206</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03233972596194527</v>
+        <v>-0.03233972596194512</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1317076950570107</v>
@@ -1402,7 +1402,7 @@
         <v>-0.221946319959384</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0001549356415361198</v>
+        <v>0.0001549356415362503</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.02151629777340693</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5913705524447833</v>
+        <v>-0.601719420412437</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.61903749630438</v>
+        <v>-0.6207468692952808</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.302135730470135</v>
+        <v>-0.2985222383392729</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0576524534571653</v>
+        <v>-0.06793156541873697</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3738448374620928</v>
+        <v>-0.3636938125744346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1797344701101408</v>
+        <v>-0.1666565441738763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1707030843586374</v>
+        <v>-0.1848529104696174</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4149896360946081</v>
+        <v>-0.4146799533384686</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1554774746827028</v>
+        <v>-0.1439231604013456</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.09890867513754374</v>
+        <v>-0.111193297417399</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1452354081072786</v>
+        <v>-0.1683237994240167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3539502686546782</v>
+        <v>0.3846481178621746</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3830200199947035</v>
+        <v>0.41305424400123</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02020318756062812</v>
+        <v>-0.03089116804443763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1920328758020393</v>
+        <v>0.2243947390170046</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1852952078092512</v>
+        <v>0.1718442838523491</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1349567231834194</v>
+        <v>-0.1341536519233634</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1604548276017572</v>
+        <v>0.168236253540673</v>
       </c>
     </row>
     <row r="28">
